--- a/assets/excel/User.xlsx
+++ b/assets/excel/User.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NIP</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Import Data User</t>
+  </si>
+  <si>
+    <t>gigi</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -115,14 +121,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,87 +414,95 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
